--- a/CapStatement/EHRProvider.xlsx
+++ b/CapStatement/EHRProvider.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\CapStatement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EB5672-D7D4-4382-B042-0F46825F3C09}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D754D50-934D-425C-811A-0E1E63BE7241}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="810" windowWidth="23325" windowHeight="13980" activeTab="5" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="-26385" yWindow="2820" windowWidth="25680" windowHeight="10665" activeTab="6" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="109">
   <si>
     <t>Value</t>
   </si>
@@ -349,6 +349,28 @@
   </si>
   <si>
     <t>next-question</t>
+  </si>
+  <si>
+    <t>-  Provider EHR *SHOULD* be capable of supporting  the[ Argonaut Questionnaire ValueSet Profile](http://fhir.org/guides/argonaut-questionnaire/StructureDefinition/argo-questionnaire-valueset) as a contained resource with the Argonaut Questionnaire Profile.</t>
+  </si>
+  <si>
+    <t>-  Provider EHR *SHOULD* be capable of supporting  the[ Argonaut Questionnaire Profile](http://fhir.org/guides/argonaut-questionnaire/StructureDefinition/argo-questionnaire) as a contained resource with the Argonaut Adaptive QuestionnaireResponse Profile.
+-  Provider EHR *SHOULD* be capable of supporting  the[ Argonaut Questionnaire ValueSet Profile](http://fhir.org/guides/argonaut-questionnaire/StructureDefinition/argo-questionnaire-valueset) as a contained resource with the Argonaut Questionnaire Profile.</t>
+  </si>
+  <si>
+    <t>combo_pairs</t>
+  </si>
+  <si>
+    <t>title,publisher,version,context-type-value</t>
+  </si>
+  <si>
+    <t>context-type,version</t>
+  </si>
+  <si>
+    <t>author,source,context</t>
+  </si>
+  <si>
+    <t>questionnaire,patient,context,author,source</t>
   </si>
 </sst>
 </file>
@@ -1015,8 +1037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACB4CFA-AAEF-4FC6-A49B-107CEE80A317}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,22 +1078,28 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="225" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
+      <c r="C2" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="H3" t="s">
         <v>93</v>
@@ -1205,7 +1233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205C96BB-EC4A-414F-8A7A-4F379CD7F5A3}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -1244,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399C2ED-EDEB-47AB-8C1E-1290512B1D2F}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,9 +1284,10 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -1307,8 +1336,11 @@
       <c r="P1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -1358,7 +1390,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1409,7 +1441,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1459,8 +1491,11 @@
       <c r="P4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -1510,8 +1545,11 @@
       <c r="P5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1561,8 +1599,11 @@
       <c r="P6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -1613,7 +1654,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1664,7 +1705,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -1715,7 +1756,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -1766,7 +1807,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -1816,8 +1857,11 @@
       <c r="P11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>52</v>
       </c>
@@ -1868,7 +1912,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1918,8 +1962,11 @@
       <c r="P13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -1970,7 +2017,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -2021,7 +2068,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>81</v>
       </c>

--- a/CapStatement/EHRProvider.xlsx
+++ b/CapStatement/EHRProvider.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\CapStatement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D754D50-934D-425C-811A-0E1E63BE7241}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42556141-3D8D-4B3F-B769-D8492D6E0100}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26385" yWindow="2820" windowWidth="25680" windowHeight="10665" activeTab="6" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="-23685" yWindow="2190" windowWidth="25680" windowHeight="10665" activeTab="5" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="111">
   <si>
     <t>Value</t>
   </si>
@@ -364,20 +364,26 @@
     <t>title,publisher,version,context-type-value</t>
   </si>
   <si>
-    <t>context-type,version</t>
-  </si>
-  <si>
     <t>author,source,context</t>
   </si>
   <si>
     <t>questionnaire,patient,context,author,source</t>
+  </si>
+  <si>
+    <t>context-type-value,version</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>http://fhir.org/guides/argonaut-questionnaire/OperationDefinition/next-question</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +397,14 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -400,7 +414,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -423,11 +437,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -439,8 +469,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1037,7 +1071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACB4CFA-AAEF-4FC6-A49B-107CEE80A317}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1231,41 +1265,50 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205C96BB-EC4A-414F-8A7A-4F379CD7F5A3}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>100</v>
       </c>
       <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>101</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{6F752532-2504-471B-ACD4-0A51BAA860CF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1274,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399C2ED-EDEB-47AB-8C1E-1290512B1D2F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,7 +1643,7 @@
         <v>41</v>
       </c>
       <c r="Q6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1858,7 +1901,7 @@
         <v>41</v>
       </c>
       <c r="Q11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
@@ -1963,7 +2006,7 @@
         <v>41</v>
       </c>
       <c r="Q13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
